--- a/dtpu_configurations/only_integer8/mxu_20x20_30mhz/utilization.xlsx
+++ b/dtpu_configurations/only_integer8/mxu_20x20_30mhz/utilization.xlsx
@@ -154,13 +154,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>45.16353225708008</v>
+        <v>45.49248123168945</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>6.758620738983154</v>
+        <v>6.816092014312744</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>25.73026466369629</v>
+        <v>25.75469970703125</v>
       </c>
       <c r="E2" t="n" s="4">
         <v>35.0</v>
